--- a/data/trans_bre/P38A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Edad-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P38A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,57%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 15,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 17,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 23,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,53; 30,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,34; 32,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 56,6</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,92; 9,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 15,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 12,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,3; 12,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,77; 22,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 18,6</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,26; 10,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 10,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 9,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 12,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,39; 13,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 12,75</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,2%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 1,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 7,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 26,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; 1,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 8,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,14; 39,3</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,97; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 5,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 4,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 5,7</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,05%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 1,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 1,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 2,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 1,54</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 5,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,54; 7,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 11,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,12; 6,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,38; 9,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,49; 14,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>12,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>24,85%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 23,86</t>
+          <t>1,32; 23,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 56,6</t>
+          <t>2,65; 52,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>-4,47%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 12,47</t>
+          <t>-28,44; 9,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 18,6</t>
+          <t>-37,28; 13,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 9,89</t>
+          <t>0,83; 9,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,14 +827,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,75</t>
+          <t>0,99; 11,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>28,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>44,59%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 26,71</t>
+          <t>3,33; 61,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,14 +907,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 39,3</t>
+          <t>3,73; 190,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,16</t>
+          <t>-0,42; 4,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,14 +987,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,7</t>
+          <t>-0,43; 5,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,8</t>
+          <t>-4,82; 0,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,23</t>
+          <t>-1,44; 2,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,48</t>
+          <t>0,42; 4,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,86</t>
+          <t>-4,85; 0,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,3</t>
+          <t>-1,46; 3,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,54</t>
+          <t>0,41; 4,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-0,53; 4,49</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 2,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; -0,06</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 4,74</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 2,7</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-3,88; -0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,59</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,72; 5,85</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,54; 7,8</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 11,17</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3,15; 28,34</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>3,12; 6,91</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,38; 9,44</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 14,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 46,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P38A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 15,89</t>
+          <t>3,25; 16,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 17,43</t>
+          <t>3,89; 17,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 23,22</t>
+          <t>1,55; 24,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,53; 30,56</t>
+          <t>5,54; 32,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 32,53</t>
+          <t>6,28; 32,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 52,03</t>
+          <t>2,72; 56,14</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,76</t>
+          <t>1,66; 10,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,88</t>
+          <t>7,21; 16,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 9,88</t>
+          <t>-28,03; 10,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 12,28</t>
+          <t>2,03; 12,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 22,08</t>
+          <t>9,15; 22,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,28; 13,77</t>
+          <t>-39,35; 14,15</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,58</t>
+          <t>4,19; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,47</t>
+          <t>3,14; 11,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,37</t>
+          <t>1,02; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,65</t>
+          <t>4,7; 12,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 13,18</t>
+          <t>3,79; 14,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 11,77</t>
+          <t>1,2; 11,93</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,5</t>
+          <t>-4,83; 1,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,36</t>
+          <t>0,57; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 61,84</t>
+          <t>3,32; 68,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 1,64</t>
+          <t>-5,11; 1,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 8,45</t>
+          <t>0,64; 8,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 190,92</t>
+          <t>3,75; 285,15</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,54</t>
+          <t>-2,87; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,4</t>
+          <t>-2,54; 4,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,81</t>
+          <t>-0,15; 4,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,8</t>
+          <t>-2,97; 3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,82</t>
+          <t>-2,68; 4,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,31</t>
+          <t>-0,13; 5,31</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 0,84</t>
+          <t>-4,61; 1,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,96</t>
+          <t>-1,28; 3,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,35</t>
+          <t>0,52; 4,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,9</t>
+          <t>-4,7; 1,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,09</t>
+          <t>-1,3; 3,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,57</t>
+          <t>0,54; 4,48</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,49</t>
+          <t>-0,52; 4,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,61</t>
+          <t>-1,71; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,06</t>
+          <t>-3,88; -0,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 4,74</t>
+          <t>-0,52; 4,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,7</t>
+          <t>-1,73; 2,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; -0,09</t>
+          <t>-3,93; -0,17</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,85</t>
+          <t>2,81; 6,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,8</t>
+          <t>4,7; 7,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,15; 28,34</t>
+          <t>3,28; 28,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,91</t>
+          <t>3,3; 7,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,38; 9,44</t>
+          <t>5,54; 9,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,76; 46,28</t>
+          <t>3,91; 46,0</t>
         </is>
       </c>
     </row>
